--- a/tests/test_xls/sheet_txns_pivot/test_foreach/test_foreach_account_category/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_foreach/test_foreach_account_category/expected_result.xlsx
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="B2" s="6" t="n">
-        <v>77451.77</v>
+        <v>57327.05</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>79260.99000000001</v>
+        <v>69089.91</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>61175.43</v>
+        <v>46505.97</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>97452.99000000001</v>
+        <v>68042.99000000001</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>82544.28999999999</v>
+        <v>97647.47</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>397885.47</v>
+        <v>338613.39</v>
       </c>
     </row>
     <row r="3">
@@ -529,22 +529,22 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>405743.87</v>
+        <v>452802.19</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>471555.5</v>
+        <v>439948.04</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>487534.98</v>
+        <v>521104.54</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>493650.42</v>
+        <v>400785.61</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>402524.61</v>
+        <v>439761.29</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>2261009.38</v>
+        <v>2254401.67</v>
       </c>
     </row>
     <row r="4">
@@ -554,22 +554,22 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>-14249.09</v>
+        <v>-11891.18</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>-19678.52</v>
+        <v>-20277.56</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-11332.62</v>
+        <v>-16132.08</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>-17478.59</v>
+        <v>-18620.19</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-9956.629999999999</v>
+        <v>-13311.51</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>-72695.45</v>
+        <v>-80232.52</v>
       </c>
     </row>
     <row r="5">
@@ -579,22 +579,22 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>-24552.83</v>
+        <v>-28564.63</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>-24956.51</v>
+        <v>-29994.23</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-30160.03</v>
+        <v>-27644.43</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-22044.21</v>
+        <v>-29930.08</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-34507.96</v>
+        <v>-24965.85</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-136221.54</v>
+        <v>-141099.22</v>
       </c>
     </row>
     <row r="6">
@@ -604,22 +604,22 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>12613.08</v>
+        <v>9349.23</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13935.54</v>
+        <v>9672.219999999999</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10470.06</v>
+        <v>7688.38</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>20222.05</v>
+        <v>8537.84</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13281.24</v>
+        <v>19512.25</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>70521.97</v>
+        <v>54759.92</v>
       </c>
     </row>
     <row r="7">
@@ -629,22 +629,22 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>-198609.51</v>
+        <v>-196582.08</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-192315.97</v>
+        <v>-188143.44</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-185663.38</v>
+        <v>-185434.74</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-196015.76</v>
+        <v>-205682.74</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-196653.19</v>
+        <v>-189920.85</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>-969257.8100000001</v>
+        <v>-965763.85</v>
       </c>
     </row>
     <row r="8">
@@ -654,22 +654,22 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>-16849.53</v>
+        <v>-18135.67</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-12233.2</v>
+        <v>-16482.58</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-20430.51</v>
+        <v>-15629.56</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-17959.24</v>
+        <v>-19907.67</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-11888.14</v>
+        <v>-12846.96</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-79360.62</v>
+        <v>-83002.44</v>
       </c>
     </row>
     <row r="9">
@@ -679,22 +679,22 @@
         </is>
       </c>
       <c r="B9" s="6" t="n">
-        <v>78455.41</v>
+        <v>81716.10000000001</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>88341.75999999999</v>
+        <v>76255.21000000001</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>87689.64</v>
+        <v>76187.89999999999</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>130019.21</v>
+        <v>68580.99000000001</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>81024.71000000001</v>
+        <v>110584.34</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>465530.73</v>
+        <v>413324.54</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>320003.17</v>
+        <v>346021.01</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>403909.59</v>
+        <v>340067.57</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>399283.57</v>
+        <v>406645.98</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>487846.87</v>
+        <v>271806.75</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>326368.93</v>
+        <v>426460.18</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>1937412.13</v>
+        <v>1791001.49</v>
       </c>
     </row>
   </sheetData>
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="B2" s="6" t="n">
-        <v>-48651.68</v>
+        <v>-38915.87</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>-31943.12</v>
+        <v>-42885.77</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>-42411.08</v>
+        <v>-38293.06</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>-42634.72</v>
+        <v>-31954.07</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>-36060.75</v>
+        <v>-28973.95</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>-201701.35</v>
+        <v>-181022.72</v>
       </c>
     </row>
     <row r="3">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>-31176.89</v>
+        <v>-36353.05</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>-37064.57</v>
+        <v>-30457.38</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>-33914.8</v>
+        <v>-38819.41</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>-32619.3</v>
+        <v>-38946.09</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>-41921.42</v>
+        <v>-34430.07</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>-176696.98</v>
+        <v>-179006</v>
       </c>
     </row>
     <row r="4">
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>-16779.25</v>
+        <v>-11866.61</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>-23981.26</v>
+        <v>-20344.57</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-15415.18</v>
+        <v>-15438.74</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>-13403.03</v>
+        <v>-15008.15</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-18507.8</v>
+        <v>-18061.25</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>-88086.52</v>
+        <v>-80719.32000000001</v>
       </c>
     </row>
     <row r="5">
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>-39370.67</v>
+        <v>-42160.42</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>-40730.86</v>
+        <v>-40308.66</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-33280.63</v>
+        <v>-31167.05</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-35929.17</v>
+        <v>-37792.51</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-36155.44</v>
+        <v>-39080.4</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-185466.77</v>
+        <v>-190509.04</v>
       </c>
     </row>
     <row r="6">
@@ -887,22 +887,22 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>-50017.94</v>
+        <v>-57936.9</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>-44660.62</v>
+        <v>-44474.84</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>-50171.63</v>
+        <v>-54028.1</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-51207.49</v>
+        <v>-73444.08</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-50726.54</v>
+        <v>-49862.93</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-246784.22</v>
+        <v>-279746.85</v>
       </c>
     </row>
     <row r="7">
@@ -912,22 +912,22 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>185996.43</v>
+        <v>187232.85</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>178380.43</v>
+        <v>178471.22</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>175193.32</v>
+        <v>177746.36</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>175793.71</v>
+        <v>197144.9</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>183371.95</v>
+        <v>170408.6</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>898735.84</v>
+        <v>911003.9300000001</v>
       </c>
     </row>
     <row r="8">
